--- a/dataset_excel/salida_rotonda_test.xlsx
+++ b/dataset_excel/salida_rotonda_test.xlsx
@@ -14,11 +14,24 @@
     <sheet name="Borja_5" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Borja_6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Borja_7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Javi_1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Javi_2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Javi_3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Javi_4" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Javi_5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Caco_1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Caco_2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Caco_3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Caco_4" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Caco_5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Caco_6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Caco_7" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Caco_8" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Javi_1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Javi_10" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Javi_2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Javi_3" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Javi_4" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Javi_5" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Javi_6" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Javi_7" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Javi_8" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Javi_9" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,50 +470,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -518,35 +536,38 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.4542153179645538</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>27</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>24.91235733032227</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>10.03256797790527</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.001901950803585351</v>
       </c>
     </row>
@@ -562,35 +583,38 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-0.518277645111084</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>31</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>33.09413146972656</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>9.004858016967773</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.001762561732903123</v>
       </c>
     </row>
@@ -605,209 +629,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>tag</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>throttle</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>steer</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>brake</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>light_state</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hand_brake</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>reverse</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>loc_x</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>loc_y</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>loc_z</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>acelero</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4934229850769043</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1172990351915359</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Right_Blinker</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J2" t="n">
-        <v>27.99835968017578</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.790670394897461</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.001861286116763949</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>quito intermitente</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BLK-OFF</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4934229850769043</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Right_Blinker</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>41</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34.09680938720703</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.877932071685791</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.001808452536351979</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>recto</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>STR</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.01935414783656597</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43.85362243652344</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.178617477416992</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.00181127549149096</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -818,7 +647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,50 +668,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -891,133 +725,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>atención coche</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>CAR-NR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4598324596881866</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1650571972131729</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>-0.800000011920929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>39</v>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.47971343994141</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>10.91950702667236</v>
+        <v>-27.89566040039062</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001840763026848435</v>
+        <v>-6.109109878540039</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.002020816784352064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>freno</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>B-ON</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5326606631278992</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02709723822772503</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Right_Blinker</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+        <v>0.1275806128978729</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>40</v>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>33.49202346801758</v>
+        <v>28</v>
       </c>
       <c r="K3" t="n">
-        <v>7.559193134307861</v>
+        <v>-36.70010757446289</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001791133894585073</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>recto</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>STR</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.800000011920929</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41.42177581787109</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.813515663146973</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.001774883246980608</v>
+        <v>-3.941839456558228</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.002097530290484428</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,50 +848,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1113,80 +914,86 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.26939657330513</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2071176022291183</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>-0.800000011920929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>43</v>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.82260131835938</v>
+        <v>28</v>
       </c>
       <c r="K2" t="n">
-        <v>11.96101856231689</v>
+        <v>-11.0563497543335</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002188548911362886</v>
+        <v>21.55831527709961</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001751613570377231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D3" t="n">
-        <v>-0.3766342997550964</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+        <v>0.08813728392124176</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>47</v>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>29.1521167755127</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>8.126897811889648</v>
+        <v>-9.771036148071289</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001644763862714171</v>
+        <v>33.86393356323242</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001746501890011132</v>
       </c>
     </row>
     <row r="4">
@@ -1201,36 +1008,1487 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.8500000238418579</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.03430747240781784</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-9.842405319213867</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43.46834564208984</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001763553591445088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.800000011920929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.927767753601074</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-39.88853073120117</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001673030783422291</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.7349636554718018</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>51</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.362979888916016</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-48.82992553710938</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001690769102424383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26939657330513</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>51</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-9.693531036376953</v>
+      </c>
+      <c r="L2" t="n">
+        <v>38.90052795410156</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001776714227162302</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1484721601009369</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-9.810933113098145</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45.78223419189453</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.002048778580501676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
       <c r="D4" t="n">
-        <v>-0.34540194272995</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>-0.0256773829460144</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>53</v>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.71184158325195</v>
+        <v>36</v>
       </c>
       <c r="K4" t="n">
-        <v>8.436331748962402</v>
+        <v>-9.969786643981934</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001615505199879408</v>
+        <v>54.86038970947266</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.002055454300716519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.02605433948338032</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.06857299804688</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.770931243896484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001779308309778571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6066043972969055</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01658904366195202</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33.70355987548828</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.393404483795166</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001693363185040653</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6066043972969055</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42.29274368286133</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.231575965881348</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001709270407445729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sigo recto</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.372218132019043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.8786449432373</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10.18427085876465</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001386318122968078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.06877923011779785</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-11.30509376525879</v>
+      </c>
+      <c r="L2" t="n">
+        <v>27.93583488464355</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.002132701920345426</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1853130608797073</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-10.99330139160156</v>
+      </c>
+      <c r="L3" t="n">
+        <v>37.91963958740234</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001922359457239509</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.224352702498436</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-10.95111656188965</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44.02573776245117</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001574191963300109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.6499999761581421</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29.69099998474121</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.980615615844727</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001725253998301923</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.5597079992294312</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34.9161262512207</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.924717426300049</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001711521064862609</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.4999999701976776</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47.68802642822266</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.853055477142334</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001735629979521036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4934229850769043</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1172990351915359</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.99835968017578</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.790670394897461</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001861286116763949</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4934229850769043</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34.09680938720703</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.877932071685791</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001808452536351979</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.01935414783656597</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43.85362243652344</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.178617477416992</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00181127549149096</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +2502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,50 +2523,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1326,35 +2589,38 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>46</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>27.32585144042969</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>9.385771751403809</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.001726093236356974</v>
       </c>
     </row>
@@ -1370,35 +2636,38 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.6211206316947937</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.3019987940788269</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>47</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>30.31264114379883</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>8.58956241607666</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.001791248330846429</v>
       </c>
     </row>
@@ -1414,36 +2683,1354 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.650823175907135</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>53</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44.82271957397461</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.901202201843262</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001715145073831081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4598324596881866</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1650571972131729</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>39</v>
+      </c>
+      <c r="K2" t="n">
+        <v>18.47971343994141</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10.91950702667236</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001840763026848435</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5326606631278992</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02709723822772503</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33.49202346801758</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.559193134307861</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001791133894585073</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>-0.800000011920929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.42177581787109</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.813515663146973</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001774883246980608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26939657330513</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2071176022291183</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>43</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.82260131835938</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11.96101856231689</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.002188548911362886</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.3766342997550964</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>47</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29.1521167755127</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.126897811889648</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001644763862714171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.34540194272995</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>53</v>
       </c>
+      <c r="K4" t="n">
+        <v>36.71184158325195</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.436331748962402</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001615505199879408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2768785953521729</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>32</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-14.99718856811523</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.28381156921387</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001328182173892856</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01452135387808084</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>66</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-10.91675662994385</v>
+      </c>
+      <c r="L3" t="n">
+        <v>32.65631866455078</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001369495410472155</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
-        <v>44.82271957397461</v>
+        <v>75</v>
       </c>
       <c r="K4" t="n">
-        <v>8.901202201843262</v>
+        <v>-10.72840785980225</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001715145073831081</v>
+        <v>40.30569458007812</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001373767852783203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.03164338693022728</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.651785373687744</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-29.83456802368164</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001450786599889398</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.31211918592453</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>82</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.071146011352539</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-58.08245086669922</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001885662088170648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>atención coche</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CAR-NR</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07972286641597748</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>32</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-38.62742233276367</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-3.330183744430542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.002192325657233596</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>freno</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06297258287668228</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-41.75907135009766</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-3.033703565597534</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.002183513483032584</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02244765497744083</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-42.97293853759766</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.996037244796753</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.002199382754042745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.800000011920929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.976311683654785</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-24.86974143981934</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001613330794498324</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1427544355392456</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>84</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.431791305541992</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-47.63461303710938</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001432781224139035</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1454853415489197</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01266065053641796</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>72</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.094387054443359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-65.518310546875</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.002237186301499605</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +4044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1478,50 +4065,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1539,35 +4131,38 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.3998300433158875</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>44</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>31.67047309875488</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>7.207676410675049</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.001967143965885043</v>
       </c>
     </row>
@@ -1583,35 +4178,38 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.5461015701293945</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-0.03338327631354332</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>43</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>40.15504455566406</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>8.797562599182129</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.001823291764594615</v>
       </c>
     </row>
@@ -1626,7 +4224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,50 +4245,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1708,35 +4311,38 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.3324174284934998</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2627202868461609</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>32</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>23.51803588867188</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>8.809623718261719</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.002005825052037835</v>
       </c>
     </row>
@@ -1752,35 +4358,38 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.3543706238269806</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.06294164806604385</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>31</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>28.1052188873291</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>8.074143409729004</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.001942501054145396</v>
       </c>
     </row>
@@ -1796,35 +4405,38 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.3543706238269806</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>30</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>31.62388610839844</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7.940271854400635</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.00187566748354584</v>
       </c>
     </row>
@@ -1839,7 +4451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1860,50 +4472,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1921,35 +4538,38 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>37</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>22.40671539306641</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>9.276981353759766</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.001868266961537302</v>
       </c>
     </row>
@@ -1965,35 +4585,38 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.4076186418533325</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.04804281145334244</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>36</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>28.2258129119873</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>7.930490970611572</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.00190961838234216</v>
       </c>
     </row>
@@ -2009,35 +4632,38 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.02320455200970173</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>36</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>38.07754898071289</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7.607615947723389</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.001825466169975698</v>
       </c>
     </row>
@@ -2052,7 +4678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2073,50 +4699,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -2134,35 +4765,38 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>54</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>21.37916374206543</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>11.58283138275146</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.001752643496729434</v>
       </c>
     </row>
@@ -2178,35 +4812,38 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.6162576675415039</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.1177174374461174</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>55</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>24.19950675964355</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>10.11562538146973</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.001801509759388864</v>
       </c>
     </row>
@@ -2222,35 +4859,38 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.1545484960079193</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>56</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>34.89767074584961</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7.92012882232666</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.001765804248861969</v>
       </c>
     </row>
@@ -2266,35 +4906,38 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.1846833825111389</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>43.95557403564453</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>8.045056343078613</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.001764697954058647</v>
       </c>
     </row>
@@ -2309,7 +4952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2330,50 +4973,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -2391,35 +5039,38 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.02547265589237213</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>45</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>29.83609771728516</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>7.658502101898193</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.001762676169164479</v>
       </c>
     </row>
@@ -2435,35 +5086,38 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.03566714003682137</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>49</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>43.06849670410156</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>7.255053520202637</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.001767292036674917</v>
       </c>
     </row>
@@ -2478,7 +5132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,50 +5153,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -2551,45 +5210,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sigo recto</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D2" t="n">
-        <v>-0.372218132019043</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>-0.800000011920929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>67</v>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.8786449432373</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>10.18427085876465</v>
+        <v>-24.84807586669922</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001386318122968078</v>
+        <v>-8.928755760192871</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001759853330440819</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>atención coche</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAR-NR</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4764819741249084</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1387574821710587</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-35.09615707397461</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-4.425873279571533</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001817073789425194</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>freno</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B-ON</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2360807955265045</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02397390082478523</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-41.02838897705078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-3.736086368560791</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001877002650871873</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +5359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2624,50 +5380,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -2676,89 +5437,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8500000238418579</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6499999761581421</v>
+        <v>0.4977049827575684</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>0.02797854132950306</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>37</v>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.69099998474121</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>6.980615615844727</v>
+        <v>-10.99576377868652</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001725253998301923</v>
+        <v>29.38389015197754</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001745243091136217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D3" t="n">
-        <v>-0.5597079992294312</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Right_Blinker</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+        <v>-0.1432014256715775</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>41</v>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.9161262512207</v>
+        <v>27</v>
       </c>
       <c r="K3" t="n">
-        <v>6.924717426300049</v>
+        <v>-10.85231876373291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001711521064862609</v>
+        <v>33.90761566162109</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001745738903991878</v>
       </c>
     </row>
     <row r="4">
@@ -2773,36 +5540,39 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="D4" t="n">
-        <v>-0.4999999701976776</v>
-      </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>-0.1018086075782776</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>47</v>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47.68802642822266</v>
+        <v>32</v>
       </c>
       <c r="K4" t="n">
-        <v>6.853055477142334</v>
+        <v>-10.70899295806885</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001735629979521036</v>
+        <v>42.02705001831055</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001745700836181641</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_excel/salida_rotonda_test.xlsx
+++ b/dataset_excel/salida_rotonda_test.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,50 +475,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -539,35 +544,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.4542153179645538</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>27</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>24.91235733032227</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>10.03256797790527</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001901950803585351</v>
       </c>
     </row>
@@ -586,35 +594,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.518277645111084</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>31</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>33.09413146972656</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>9.004858016967773</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001762561732903123</v>
       </c>
     </row>
@@ -629,14 +640,237 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6558634638786316</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.06250572204589844</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>38</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10.9213399887085</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-34.34526443481445</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.00170900346711278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sigo recto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.09303539991378784</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.720303535461426</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-41.79500579833984</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001697521191090345</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6114190220832825</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02058845013380051</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.383475303649902</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-50.03433609008789</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001722583780065179</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -647,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,50 +907,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -725,94 +964,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>atención coche</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAR-NR</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>37</v>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.89566040039062</v>
+        <v>40</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.109109878540039</v>
+        <v>-24.73937606811523</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002020816784352064</v>
+        <v>-7.714028358459473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.002011241856962442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>freno</t>
+          <t>atención coche</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B-ON</t>
+          <t>CAR-NR</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.800000011920929</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>37</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-27.89566040039062</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-6.109109878540039</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.002020816784352064</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>freno</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B-ON</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.1275806128978729</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>28</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L4" t="n">
         <v>-36.70010757446289</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M4" t="n">
         <v>-3.941839456558228</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N4" t="n">
         <v>0.002097530290484428</v>
       </c>
     </row>
@@ -827,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,50 +1148,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -917,35 +1217,38 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>28</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>-11.0563497543335</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>21.55831527709961</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001751613570377231</v>
       </c>
     </row>
@@ -964,35 +1267,38 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08813728392124176</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>35</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-9.771036148071289</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>33.86393356323242</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001746501890011132</v>
       </c>
     </row>
@@ -1011,35 +1317,38 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03430747240781784</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>39</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-9.842405319213867</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>43.46834564208984</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001763553591445088</v>
       </c>
     </row>
@@ -1054,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,50 +1389,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1132,94 +1446,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>46</v>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.927767753601074</v>
+        <v>43</v>
       </c>
       <c r="L2" t="n">
-        <v>-39.88853073120117</v>
+        <v>7.692383289337158</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001673030783422291</v>
+        <v>-35.05272674560547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001690578414127231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>recto</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>-0.800000011920929</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.927767753601074</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-39.88853073120117</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001673030783422291</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>recto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.7349636554718018</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>51</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L4" t="n">
         <v>8.362979888916016</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M4" t="n">
         <v>-48.82992553710938</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N4" t="n">
         <v>0.001690769102424383</v>
       </c>
     </row>
@@ -1234,7 +1604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,50 +1630,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1324,35 +1699,38 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.26939657330513</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>51</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>-9.693531036376953</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>38.90052795410156</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001776714227162302</v>
       </c>
     </row>
@@ -1371,35 +1749,38 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.1484721601009369</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>46</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-9.810933113098145</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>45.78223419189453</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.002048778580501676</v>
       </c>
     </row>
@@ -1418,35 +1799,38 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.0256773829460144</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>36</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-9.969786643981934</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>54.86038970947266</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.002055454300716519</v>
       </c>
     </row>
@@ -1461,7 +1845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,50 +1871,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1551,35 +1940,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.02605433948338032</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>34</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>27.06857299804688</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>7.770931243896484</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001779308309778571</v>
       </c>
     </row>
@@ -1598,35 +1990,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.6066043972969055</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.01658904366195202</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>39</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>33.70355987548828</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>7.393404483795166</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001693363185040653</v>
       </c>
     </row>
@@ -1645,35 +2040,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.6066043972969055</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>44</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>42.29274368286133</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>7.231575965881348</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001709270407445729</v>
       </c>
     </row>
@@ -1688,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1714,50 +2112,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1778,35 +2181,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.372218132019043</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>67</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>16.8786449432373</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>10.18427085876465</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001386318122968078</v>
       </c>
     </row>
@@ -1821,7 +2227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,50 +2253,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -1911,35 +2322,38 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06877923011779785</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>36</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>-11.30509376525879</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>27.93583488464355</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.002132701920345426</v>
       </c>
     </row>
@@ -1958,35 +2372,38 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.1853130608797073</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>25</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-10.99330139160156</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>37.91963958740234</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001922359457239509</v>
       </c>
     </row>
@@ -2005,35 +2422,38 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.224352702498436</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>33</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-10.95111656188965</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>44.02573776245117</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001574191963300109</v>
       </c>
     </row>
@@ -2048,7 +2468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2074,50 +2494,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -2138,35 +2563,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.6499999761581421</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>37</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>29.69099998474121</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>6.980615615844727</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001725253998301923</v>
       </c>
     </row>
@@ -2185,35 +2613,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.5597079992294312</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>41</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>34.9161262512207</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>6.924717426300049</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001711521064862609</v>
       </c>
     </row>
@@ -2232,35 +2663,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.4999999701976776</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>47</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>47.68802642822266</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>6.853055477142334</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001735629979521036</v>
       </c>
     </row>
@@ -2275,7 +2709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2301,50 +2735,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -2365,35 +2804,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.4934229850769043</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1172990351915359</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>40</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>27.99835968017578</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>6.790670394897461</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001861286116763949</v>
       </c>
     </row>
@@ -2412,35 +2854,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.4934229850769043</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>41</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>34.09680938720703</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>6.877932071685791</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001808452536351979</v>
       </c>
     </row>
@@ -2459,35 +2904,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.01935414783656597</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>42</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>43.85362243652344</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>7.178617477416992</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.00181127549149096</v>
       </c>
     </row>
@@ -2502,7 +2950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2528,50 +2976,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -2592,35 +3045,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>46</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>27.32585144042969</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>9.385771751403809</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001726093236356974</v>
       </c>
     </row>
@@ -2639,35 +3095,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.6211206316947937</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.3019987940788269</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>47</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>30.31264114379883</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>8.58956241607666</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001791248330846429</v>
       </c>
     </row>
@@ -2686,35 +3145,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.650823175907135</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>53</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>44.82271957397461</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>8.901202201843262</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001715145073831081</v>
       </c>
     </row>
@@ -2729,7 +3191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2755,50 +3217,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -2819,35 +3286,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.4598324596881866</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1650571972131729</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>39</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>18.47971343994141</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>10.91950702667236</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001840763026848435</v>
       </c>
     </row>
@@ -2866,35 +3336,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.5326606631278992</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.02709723822772503</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>40</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>33.49202346801758</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>7.559193134307861</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001791133894585073</v>
       </c>
     </row>
@@ -2913,35 +3386,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>42</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>41.42177581787109</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>7.813515663146973</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001774883246980608</v>
       </c>
     </row>
@@ -2956,7 +3432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2982,50 +3458,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -3046,35 +3527,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.26939657330513</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2071176022291183</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>43</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>16.82260131835938</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>11.96101856231689</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.002188548911362886</v>
       </c>
     </row>
@@ -3093,35 +3577,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.3766342997550964</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>47</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>29.1521167755127</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>8.126897811889648</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001644763862714171</v>
       </c>
     </row>
@@ -3140,35 +3627,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.34540194272995</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>53</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>36.71184158325195</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>8.436331748962402</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001615505199879408</v>
       </c>
     </row>
@@ -3183,7 +3673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3209,50 +3699,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -3273,35 +3768,38 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.2768785953521729</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>32</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>-14.99718856811523</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>13.28381156921387</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001328182173892856</v>
       </c>
     </row>
@@ -3320,35 +3818,38 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.01452135387808084</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>66</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-10.91675662994385</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>32.65631866455078</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001369495410472155</v>
       </c>
     </row>
@@ -3367,35 +3868,38 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>75</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-10.72840785980225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>40.30569458007812</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001373767852783203</v>
       </c>
     </row>
@@ -3410,7 +3914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3436,50 +3940,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -3500,35 +4009,38 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.03164338693022728</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>67</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>5.651785373687744</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>-29.83456802368164</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001450786599889398</v>
       </c>
     </row>
@@ -3547,35 +4059,38 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.31211918592453</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>82</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>6.071146011352539</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>-58.08245086669922</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001885662088170648</v>
       </c>
     </row>
@@ -3590,7 +4105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3616,50 +4131,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -3680,35 +4200,38 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07972286641597748</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>32</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>-38.62742233276367</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>-3.330183744430542</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.002192325657233596</v>
       </c>
     </row>
@@ -3727,35 +4250,38 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06297258287668228</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>26</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-41.75907135009766</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>-3.033703565597534</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.002183513483032584</v>
       </c>
     </row>
@@ -3774,35 +4300,38 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02244765497744083</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>23</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-42.97293853759766</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-2.996037244796753</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.002199382754042745</v>
       </c>
     </row>
@@ -3817,7 +4346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,50 +4372,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -3907,35 +4441,38 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>60</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>7.976311683654785</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>-24.86974143981934</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001613330794498324</v>
       </c>
     </row>
@@ -3954,35 +4491,38 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.1427544355392456</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>84</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>5.431791305541992</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>-47.63461303710938</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001432781224139035</v>
       </c>
     </row>
@@ -4001,35 +4541,38 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1454853415489197</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.01266065053641796</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>72</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>5.094387054443359</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-65.518310546875</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.002237186301499605</v>
       </c>
     </row>
@@ -4044,7 +4587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4070,50 +4613,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -4134,35 +4682,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.3998300433158875</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>44</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>31.67047309875488</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>7.207676410675049</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001967143965885043</v>
       </c>
     </row>
@@ -4181,35 +4732,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.5461015701293945</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.03338327631354332</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>43</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>40.15504455566406</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>8.797562599182129</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001823291764594615</v>
       </c>
     </row>
@@ -4224,7 +4778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4250,50 +4804,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -4314,35 +4873,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.3324174284934998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2627202868461609</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>32</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>23.51803588867188</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>8.809623718261719</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.002005825052037835</v>
       </c>
     </row>
@@ -4361,35 +4923,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.3543706238269806</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06294164806604385</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>31</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>28.1052188873291</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>8.074143409729004</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001942501054145396</v>
       </c>
     </row>
@@ -4408,35 +4973,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.3543706238269806</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>30</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>31.62388610839844</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>7.940271854400635</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.00187566748354584</v>
       </c>
     </row>
@@ -4451,7 +5019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4477,50 +5045,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -4541,35 +5114,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>37</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>22.40671539306641</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>9.276981353759766</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001868266961537302</v>
       </c>
     </row>
@@ -4588,35 +5164,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.4076186418533325</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04804281145334244</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>36</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>28.2258129119873</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>7.930490970611572</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.00190961838234216</v>
       </c>
     </row>
@@ -4635,35 +5214,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.02320455200970173</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>36</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>38.07754898071289</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>7.607615947723389</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001825466169975698</v>
       </c>
     </row>
@@ -4678,7 +5260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4704,50 +5286,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -4768,35 +5355,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>54</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>21.37916374206543</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>11.58283138275146</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001752643496729434</v>
       </c>
     </row>
@@ -4815,35 +5405,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.6162576675415039</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1177174374461174</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>55</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>24.19950675964355</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>10.11562538146973</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001801509759388864</v>
       </c>
     </row>
@@ -4862,35 +5455,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.1545484960079193</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>56</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>34.89767074584961</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>7.92012882232666</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001765804248861969</v>
       </c>
     </row>
@@ -4909,35 +5505,38 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-0.1846833825111389</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>58</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>43.95557403564453</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>8.045056343078613</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.001764697954058647</v>
       </c>
     </row>
@@ -4952,7 +5551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4978,50 +5577,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -5042,35 +5646,38 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.02547265589237213</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>45</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>29.83609771728516</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>7.658502101898193</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001762676169164479</v>
       </c>
     </row>
@@ -5089,35 +5696,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03566714003682137</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>49</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>43.06849670410156</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>7.255053520202637</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001767292036674917</v>
       </c>
     </row>
@@ -5132,7 +5742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5158,50 +5768,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -5222,35 +5837,38 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.800000011920929</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>37</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>-24.84807586669922</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>-8.928755760192871</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001759853330440819</v>
       </c>
     </row>
@@ -5269,35 +5887,38 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.4764819741249084</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1387574821710587</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>40</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-35.09615707397461</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>-4.425873279571533</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001817073789425194</v>
       </c>
     </row>
@@ -5316,35 +5937,38 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.2360807955265045</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02397390082478523</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>39</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-41.02838897705078</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-3.736086368560791</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001877002650871873</v>
       </c>
     </row>
@@ -5359,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5385,50 +6009,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>throttle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>light_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hand_brake</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>loc_x</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>loc_y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>loc_z</t>
         </is>
@@ -5449,35 +6078,38 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.4977049827575684</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.02797854132950306</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>24</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>-10.99576377868652</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>29.38389015197754</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.001745243091136217</v>
       </c>
     </row>
@@ -5496,35 +6128,38 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.1432014256715775</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>27</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-10.85231876373291</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>33.90761566162109</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.001745738903991878</v>
       </c>
     </row>
@@ -5543,35 +6178,38 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.8500000238418579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.1018086075782776</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>32</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-10.70899295806885</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>42.02705001831055</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.001745700836181641</v>
       </c>
     </row>
